--- a/文件/版本3_归一化_Week_Y_BMI_004_result.xlsx
+++ b/文件/版本3_归一化_Week_Y_BMI_004_result.xlsx
@@ -1408,6 +1408,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:t>标准化BMI增长速率与斜率的散点图</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1417,25 +1441,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3630,6 +3635,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{f1252176-5334-4b7d-9e3b-9c622268119c}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3678,6 +3688,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t> 归一化BMI增长速率与归一化斜率的散点图</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3687,29 +3723,20 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0962532981530343"/>
+          <c:y val="0.170494084899095"/>
+          <c:w val="0.87254617414248"/>
+          <c:h val="0.665970772442589"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
@@ -5053,6 +5080,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{60008560-2a39-43d9-86dd-ae2e8f168b3b}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5083,6 +5115,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -6818,16 +6851,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>48260</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>122555</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>473710</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>364490</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6835,7 +6868,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15688310" y="655955"/>
+        <a:off x="16836390" y="391795"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6878,16 +6911,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>526415</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>90805</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>24765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>323215</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>167005</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -6895,7 +6928,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="16166465" y="7914005"/>
+        <a:off x="13413105" y="3225165"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -6906,7 +6939,106 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>80645</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24130</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17606645" y="2764790"/>
+          <a:ext cx="497205" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>编号</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.904881266490765</cdr:x>
+      <cdr:y>0.866388308977035</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.986411609498681</cdr:x>
+      <cdr:y>0.942936673625609</cdr:y>
+    </cdr:to>
+    <cdr:sp>
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文本框 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4355465" y="2371725"/>
+          <a:ext cx="392430" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7196,7 +7328,7 @@
   <sheetPr/>
   <dimension ref="A1:P178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K1" sqref="O$1:O$1048576 K$1:K$1048576"/>
     </sheetView>
   </sheetViews>
